--- a/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Father/6_bordervowels_mfcc_no_IDS_F.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Father/6_bordervowels_mfcc_no_IDS_F.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2148595.729559038</v>
+        <v>2148596</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1280262.352769298</v>
+        <v>1280262</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3834719.78887518</v>
+        <v>3834720</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5359704.645503702</v>
+        <v>5359705</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1887467.322514493</v>
+        <v>1887467</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2461846.527276491</v>
+        <v>2461847</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4063728.666170417</v>
+        <v>4063729</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2797805.727882944</v>
+        <v>2797806</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4228913.145812013</v>
+        <v>4228913</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5246182.266904755</v>
+        <v>5246182</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5677148.739722512</v>
+        <v>5677149</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3688654.72841561</v>
+        <v>3688655</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5591678.703905446</v>
+        <v>5591679</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3225977.465085134</v>
+        <v>3225977</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3664524.05271736</v>
+        <v>3664524</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2735885.284323419</v>
+        <v>2735885</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3910456.743041819</v>
+        <v>3910457</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4527719.805334807</v>
+        <v>4527720</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2972467.517638593</v>
+        <v>2972468</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8855122.056953898</v>
+        <v>8855122</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4862034.017554965</v>
+        <v>4862034</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5180076.398221123</v>
+        <v>5180076</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4029403.597324317</v>
+        <v>4029404</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8673877.68849392</v>
+        <v>8673878</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8080185.994901206</v>
+        <v>8080186</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>806265.9873872437</v>
+        <v>806266</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1945465.214109428</v>
+        <v>1945465</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1138795.804135048</v>
+        <v>1138796</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4902985.957723291</v>
+        <v>4902986</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3678478.969442678</v>
+        <v>3678479</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6282619.240915402</v>
+        <v>6282619</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2408372.066433114</v>
+        <v>2408372</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1747024.358037454</v>
+        <v>1747024</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1146307.152764438</v>
+        <v>1146307</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3884532.829153503</v>
+        <v>3884533</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4845083.604037102</v>
+        <v>4845084</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5800935.616444091</v>
+        <v>5800936</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2389778.221250321</v>
+        <v>2389778</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3192890.831151629</v>
+        <v>3192891</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3949516.009853499</v>
+        <v>3949516</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3074959.959950057</v>
+        <v>3074960</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5067453.267971149</v>
+        <v>5067453</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5853063.661371278</v>
+        <v>5853064</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17597709.29917639</v>
+        <v>17597709</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3454890.375367176</v>
+        <v>3454890</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5429791.488916443</v>
+        <v>5429791</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4646532.363982026</v>
+        <v>4646532</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2587694.704741876</v>
+        <v>2587695</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3072558.40553783</v>
+        <v>3072558</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4289730.168380618</v>
+        <v>4289730</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2695511.773199042</v>
+        <v>2695512</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3825759.583334278</v>
+        <v>3825760</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2740677.389508637</v>
+        <v>2740677</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4177709.561721206</v>
+        <v>4177710</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3427791.988380915</v>
+        <v>3427792</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9458867.540733809</v>
+        <v>9458868</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8231413.277434124</v>
+        <v>8231413</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4517038.339423691</v>
+        <v>4517038</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2499608.882015496</v>
+        <v>2499609</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2795552.861695379</v>
+        <v>2795553</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4334293.375303705</v>
+        <v>4334293</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2358606.905828389</v>
+        <v>2358607</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2447625.468626569</v>
+        <v>2447625</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4652264.299867741</v>
+        <v>4652264</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2950945.852918966</v>
+        <v>2950946</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2763720.35912465</v>
+        <v>2763720</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6099897.865129104</v>
+        <v>6099898</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1813212.175797679</v>
+        <v>1813212</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6277622.59678354</v>
+        <v>6277623</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4498481.400056862</v>
+        <v>4498481</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2400541.998580342</v>
+        <v>2400542</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4557602.984434326</v>
+        <v>4557603</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1948826.500801444</v>
+        <v>1948827</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>581984.8688395137</v>
+        <v>581985</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2708342.89932825</v>
+        <v>2708343</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5557320.787333307</v>
+        <v>5557321</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1841509.445399774</v>
+        <v>1841509</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4331828.128578605</v>
+        <v>4331828</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5523699.157143303</v>
+        <v>5523699</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>13795106.42029736</v>
+        <v>13795106</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4434080.114332031</v>
+        <v>4434080</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2092412.095637103</v>
+        <v>2092412</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2355361.515987928</v>
+        <v>2355362</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5685289.658320503</v>
+        <v>5685290</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2573515.072904943</v>
+        <v>2573515</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1127395.383957229</v>
+        <v>1127395</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1444796.367485917</v>
+        <v>1444796</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>8296215.908137261</v>
+        <v>8296216</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7101425.230664559</v>
+        <v>7101425</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4337571.981173258</v>
+        <v>4337572</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6108419.479361511</v>
+        <v>6108419</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2395978.420841383</v>
+        <v>2395978</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4436913.365231665</v>
+        <v>4436913</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6148444.958715331</v>
+        <v>6148445</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2804167.269380034</v>
+        <v>2804167</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1650735.608957219</v>
+        <v>1650736</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1260970.80342988</v>
+        <v>1260971</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1694131.996960137</v>
+        <v>1694132</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4543910.208029463</v>
+        <v>4543910</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3479557.776242947</v>
+        <v>3479558</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8881465.085708629</v>
+        <v>8881465</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>11855128.16568242</v>
+        <v>11855128</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>15412105.31487314</v>
+        <v>15412105</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1113686.696285611</v>
+        <v>1113687</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4221783.386816976</v>
+        <v>4221783</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5134842.460667036</v>
+        <v>5134842</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>10628359.01801584</v>
+        <v>10628359</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2349660.484049415</v>
+        <v>2349660</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3770814.93273002</v>
+        <v>3770815</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>4764879.340635106</v>
+        <v>4764879</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2157297.304770341</v>
+        <v>2157297</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5691562.706111987</v>
+        <v>5691563</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2328287.42689723</v>
+        <v>2328287</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2040442.235209942</v>
+        <v>2040442</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2114645.724876755</v>
+        <v>2114646</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2181974.267595558</v>
+        <v>2181974</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>448758.306293966</v>
+        <v>448758</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1414087.133407848</v>
+        <v>1414087</v>
       </c>
     </row>
   </sheetData>
